--- a/BD3.xlsx
+++ b/BD3.xlsx
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3.630986416532522</v>
+        <v>4.245385152778341</v>
       </c>
     </row>
   </sheetData>
